--- a/MovingAverage.xlsx
+++ b/MovingAverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulm\MovingAverage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6144D-CD63-4B57-8885-7382FB60D9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC2A706-99BC-47B0-9418-78365DBD5EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,40 +36,40 @@
     <t>double time</t>
   </si>
   <si>
-    <t>For window size 4 and double data type, time taken: 0.0334454 seconds</t>
+    <t>For window size 4 and double data type, time taken: 0.0196169 seconds</t>
   </si>
   <si>
-    <t>For window size 4 and float data type, time taken: 0.02884 seconds</t>
+    <t>For window size 4 and float data type, time taken: 0.0151546 seconds</t>
   </si>
   <si>
-    <t>For window size 8 and double data type, time taken: 0.0338303 seconds</t>
+    <t>For window size 8 and double data type, time taken: 0.0125737 seconds</t>
   </si>
   <si>
-    <t>For window size 8 and float data type, time taken: 0.0303392 seconds</t>
+    <t>For window size 8 and float data type, time taken: 0.062413 seconds</t>
   </si>
   <si>
-    <t>For window size 16 and double data type, time taken: 0.0503386 seconds</t>
+    <t>For window size 16 and double data type, time taken: 0.0294812 seconds</t>
   </si>
   <si>
-    <t>For window size 16 and float data type, time taken: 0.0718225 seconds</t>
+    <t>For window size 16 and float data type, time taken: 0.017442 seconds</t>
   </si>
   <si>
-    <t>For window size 32 and double data type, time taken: 0.0693986 seconds</t>
+    <t>For window size 32 and double data type, time taken: 0.0121053 seconds</t>
   </si>
   <si>
-    <t>For window size 32 and float data type, time taken: 0.0434761 seconds</t>
+    <t>For window size 32 and float data type, time taken: 0.0117554 seconds</t>
   </si>
   <si>
-    <t>For window size 64 and double data type, time taken: 0.0455007 seconds</t>
+    <t>For window size 64 and double data type, time taken: 0.0133826 seconds</t>
   </si>
   <si>
-    <t>For window size 64 and float data type, time taken: 0.0361491 seconds</t>
+    <t>For window size 64 and float data type, time taken: 0.0121643 seconds</t>
   </si>
   <si>
-    <t>For window size 128 and double data type, time taken: 0.0334221 seconds</t>
+    <t>For window size 128 and double data type, time taken: 0.0178691 seconds</t>
   </si>
   <si>
-    <t>For window size 128 and float data type, time taken: 0.0632544 seconds</t>
+    <t>For window size 128 and float data type, time taken: 0.0168702 seconds</t>
   </si>
 </sst>
 </file>
@@ -232,22 +232,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.8840000000000001E-2</c:v>
+                  <c:v>1.5154600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.03392E-2</c:v>
+                  <c:v>6.2413000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1822499999999997E-2</c:v>
+                  <c:v>1.7441999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3476099999999997E-2</c:v>
+                  <c:v>1.1755399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6149100000000003E-2</c:v>
+                  <c:v>1.2164299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3254400000000002E-2</c:v>
+                  <c:v>1.6870199999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -292,22 +292,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.34454E-2</c:v>
+                  <c:v>1.96169E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3830300000000001E-2</c:v>
+                  <c:v>1.25737E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0338599999999997E-2</c:v>
+                  <c:v>2.9481199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9398600000000005E-2</c:v>
+                  <c:v>1.2105299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5500699999999998E-2</c:v>
+                  <c:v>1.33826E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3422100000000003E-2</c:v>
+                  <c:v>1.7869099999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>2.8840000000000001E-2</v>
+        <v>1.5154600000000001E-2</v>
       </c>
       <c r="F2">
-        <v>3.34454E-2</v>
+        <v>1.96169E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1428,10 +1428,10 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>3.03392E-2</v>
+        <v>6.2413000000000003E-2</v>
       </c>
       <c r="F3">
-        <v>3.3830300000000001E-2</v>
+        <v>1.25737E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,10 +1442,10 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>7.1822499999999997E-2</v>
+        <v>1.7441999999999999E-2</v>
       </c>
       <c r="F4">
-        <v>5.0338599999999997E-2</v>
+        <v>2.9481199999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1456,10 +1456,10 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>4.3476099999999997E-2</v>
+        <v>1.1755399999999999E-2</v>
       </c>
       <c r="F5">
-        <v>6.9398600000000005E-2</v>
+        <v>1.2105299999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1470,10 +1470,10 @@
         <v>64</v>
       </c>
       <c r="E6">
-        <v>3.6149100000000003E-2</v>
+        <v>1.2164299999999999E-2</v>
       </c>
       <c r="F6">
-        <v>4.5500699999999998E-2</v>
+        <v>1.33826E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1484,10 +1484,10 @@
         <v>128</v>
       </c>
       <c r="E7">
-        <v>6.3254400000000002E-2</v>
+        <v>1.6870199999999998E-2</v>
       </c>
       <c r="F7">
-        <v>3.3422100000000003E-2</v>
+        <v>1.7869099999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
